--- a/004. Problem Input/Diet_Problem_Products.xlsx
+++ b/004. Problem Input/Diet_Problem_Products.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heinz365-my.sharepoint.com/personal/humberto_consoloholanda_kraftheinz_com/Documents/Documents/GitHub/MSDS460-Assignment_01_/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heinz365-my.sharepoint.com/personal/humberto_consoloholanda_kraftheinz_com/Documents/Documents/GitHub/MSDS460-Assignment_01_/004. Problem Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{17F6CA4F-B528-4996-8EAC-F1A3606ED033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0F42E1C-37B1-46DE-A0A7-11EDB0410342}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{17F6CA4F-B528-4996-8EAC-F1A3606ED033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD2DF654-4408-403D-801A-A125CC9F7B4F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F4771D99-4866-445C-8FBB-2F408F3E216F}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Diet_Problem_Products!$A$1:$AM$14</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,9 +50,6 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>20 Minute Meal-Prep Chicken, Rice and Broccoli | Gimme Delicious</t>
-  </si>
-  <si>
     <t>Jasmine Rice</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
     <t>Kroger® Iodized Salt, 26 oz - Mariano’s (marianos.com)</t>
   </si>
   <si>
-    <t>Heritage Farm Boneless Skinless Fresh Chicken Breast, 1 lb - Mariano’s (marianos.com)</t>
-  </si>
-  <si>
     <t>Brocolis Crowns</t>
   </si>
   <si>
@@ -231,12 +225,18 @@
   </si>
   <si>
     <t>Fresh Express Chopped Caesar Salad Kit</t>
+  </si>
+  <si>
+    <t>A delightful 'mess' with salmon, rice &amp; broccoli (ramonascuisine.com)</t>
+  </si>
+  <si>
+    <t>Kroger® Frozen Wild Caught Pink Salmon Fillets BIG DEAL!, 32 oz - Mariano’s (marianos.com)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -345,7 +345,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{A854938A-C781-4A42-8A50-E428785E89CB}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -674,10 +676,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F2C0AB-5E20-4F78-A263-0DF215676808}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,78 +709,78 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>46</v>
-      </c>
       <c r="L1" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>23</v>
       </c>
       <c r="U1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -786,7 +789,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <v>1.39</v>
@@ -795,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="8">
         <f>F2/D2*G2</f>
@@ -805,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L2" s="6">
         <f t="shared" ref="L2:L11" si="0">G2/J2</f>
@@ -837,15 +840,15 @@
         <v>330</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -854,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>6.79</v>
@@ -863,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="8">
         <f>F3/D3*G3</f>
@@ -873,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" si="0"/>
@@ -905,24 +908,24 @@
         <v>360</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4">
         <v>2.5</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>4.49</v>
@@ -931,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="8">
         <f>F4/D4*G4</f>
@@ -941,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" si="0"/>
@@ -973,33 +976,33 @@
         <v>190</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5" s="8">
         <v>1</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="8">
         <f>SUM(I6:I9)</f>
@@ -1009,7 +1012,7 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" si="0"/>
@@ -1048,24 +1051,24 @@
         <v>351.41666666666663</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>2.99</v>
@@ -1074,7 +1077,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" s="8">
         <f>F6/D6*G6</f>
@@ -1084,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" si="0"/>
@@ -1116,24 +1119,24 @@
         <v>70</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>0.65</v>
@@ -1142,7 +1145,7 @@
         <v>0.5</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" s="8">
         <f>F7/D7*G7</f>
@@ -1152,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" si="0"/>
@@ -1184,27 +1187,27 @@
         <v>219</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>4.99</v>
@@ -1213,7 +1216,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" s="8">
         <f>F8/D8*G8</f>
@@ -1223,7 +1226,7 @@
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" si="0"/>
@@ -1255,24 +1258,24 @@
         <v>470</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>491</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9">
         <v>1.69</v>
@@ -1281,7 +1284,7 @@
         <v>0.25</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="8">
         <f>F9/D9*G9</f>
@@ -1291,7 +1294,7 @@
         <v>0.25</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" si="0"/>
@@ -1323,33 +1326,33 @@
         <v>0</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="4">
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G10" s="8">
         <v>1</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" s="8">
         <f>SUM(I11:I14)</f>
@@ -1359,7 +1362,7 @@
         <v>4</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L10" s="6">
         <f t="shared" si="0"/>
@@ -1398,24 +1401,24 @@
         <v>618.5</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="4">
         <v>5</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <v>3.49</v>
@@ -1424,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" s="8">
         <f>F11/D11*G11</f>
@@ -1434,7 +1437,7 @@
         <v>0.25</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L11" s="6">
         <f t="shared" si="0"/>
@@ -1466,24 +1469,24 @@
         <v>0</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>491</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12">
         <v>1.69</v>
@@ -1492,7 +1495,7 @@
         <v>0.75</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="8">
         <f>F12/D12*G12</f>
@@ -1502,7 +1505,7 @@
         <v>0.25</v>
       </c>
       <c r="K12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L12" s="6">
         <f>G12/J12</f>
@@ -1534,24 +1537,24 @@
         <v>0</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13">
         <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13">
         <v>18.989999999999998</v>
@@ -1560,7 +1563,7 @@
         <v>16</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" s="8">
         <f>F13/D13*G13</f>
@@ -1570,7 +1573,7 @@
         <v>4</v>
       </c>
       <c r="K13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L13" s="6">
         <f>G13/J13</f>
@@ -1602,24 +1605,24 @@
         <v>410</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14">
         <v>1.71</v>
@@ -1628,7 +1631,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14" s="8">
         <f>F14/D14*G14</f>
@@ -1638,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L14" s="6">
         <f>G14/J14</f>
@@ -1670,24 +1673,24 @@
         <v>278</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D15">
         <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F15">
         <v>1.99</v>
@@ -1696,25 +1699,25 @@
         <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="8">
-        <f ca="1">F15/D15*G15</f>
+        <f>F15/D15*G15</f>
         <v>0.24875</v>
       </c>
       <c r="J15" s="4">
         <v>8</v>
       </c>
       <c r="K15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L15" s="6">
-        <f ca="1">G15/J15</f>
+        <f>G15/J15</f>
         <v>1</v>
       </c>
       <c r="M15" s="12">
-        <f ca="1">I15</f>
-        <v>0.46333333333333332</v>
+        <f>I15</f>
+        <v>0.24875</v>
       </c>
       <c r="N15" s="11">
         <v>80</v>
@@ -1738,27 +1741,27 @@
         <v>390</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="U10" r:id="rId1" display="https://gimmedelicious.com/20-minute-meal-prep-chicken-rice-and-broccoli/" xr:uid="{934A6CD4-2FCF-47F9-94B9-3DEAB1F2191B}"/>
-    <hyperlink ref="U5" r:id="rId2" display="https://healthyrecipesblogs.com/spinach-scramble/" xr:uid="{B158754C-43E4-4FF1-907D-5B9574266BA7}"/>
-    <hyperlink ref="U3" r:id="rId3" display="https://www.marianos.com/p/amy-s-thai-pad-thai-frozen-meal/0004227200924?searchType=default_search" xr:uid="{1F169E97-E338-4D3E-B215-2A2DDC46C5DE}"/>
-    <hyperlink ref="U2" r:id="rId4" display="https://www.marianos.com/p/kraft-original-mac-n-cheese-macaroni-and-cheese-dinner/0002100065883?searchType=suggestions" xr:uid="{CF4FFFAA-E758-40B7-9926-D55909DE6495}"/>
-    <hyperlink ref="U4" r:id="rId5" display="https://www.marianos.com/p/fresh-express-asian-apple-salad-kit/0007127930238?searchType=default_search" xr:uid="{8E432FCE-1ED3-4C38-85C1-A1ACA652BCCD}"/>
-    <hyperlink ref="U6" r:id="rId6" display="https://www.marianos.com/p/roundy-s-large-white-eggs/0001115099302?searchType=default_search" xr:uid="{16989471-87F8-4E41-B23F-9DF73B304846}"/>
-    <hyperlink ref="U7" r:id="rId7" display="https://www.marianos.com/p/medium-yellow-onions/0000000004093?searchType=default_search" xr:uid="{4E9E1A37-2E63-4366-9289-8EA104BA642B}"/>
-    <hyperlink ref="V7" r:id="rId8" location="/food-details/170000/nutrients" display="https://fdc.nal.usda.gov/fdc-app.html - /food-details/170000/nutrients" xr:uid="{918648F5-C8E6-46FD-A04B-C99CA301B7CC}"/>
-    <hyperlink ref="U8" r:id="rId9" display="https://www.marianos.com/p/fresh-express-baby-sinach-clamshell/0007127927504?searchType=default_search" xr:uid="{37A65B72-B51E-4C90-AF25-2ADB83ED8C46}"/>
-    <hyperlink ref="U11" r:id="rId10" display="https://www.marianos.com/p/kroger-thai-jasmine-rice/0001111086084?searchType=default_search" xr:uid="{BF98A656-2772-4640-8938-D58A58C8A1F0}"/>
-    <hyperlink ref="U12" r:id="rId11" display="https://www.marianos.com/p/kroger-iodized-salt/0001111004808?searchType=default_search" xr:uid="{6E6672BA-3EEC-455E-B352-39D712C1E183}"/>
-    <hyperlink ref="U13" r:id="rId12" display="https://www.marianos.com/p/heritage-farm-boneless-skinless-fresh-chicken-breast/0021065600000?searchType=default_search" xr:uid="{4DBEB3D5-E08A-48D7-8F0E-7544FA61F03A}"/>
-    <hyperlink ref="U14" r:id="rId13" display="https://www.marianos.com/p/broccoli-crowns/0000000003082?searchType=default_search" xr:uid="{68E0B6B4-7045-4F9D-8143-7A3D63FECC97}"/>
-    <hyperlink ref="U9" r:id="rId14" display="https://www.marianos.com/p/kroger-iodized-salt/0001111004808?searchType=default_search" xr:uid="{5FA9E986-81ED-4D7D-A8AC-58CB39BECA05}"/>
-    <hyperlink ref="U15" r:id="rId15" display="https://www.marianos.com/p/roundy-s-select-fat-free-skim-milk/0001115015958?searchType=default_search" xr:uid="{657B1142-91CF-4CD9-BBAF-D307423E16F2}"/>
+    <hyperlink ref="U5" r:id="rId1" display="https://healthyrecipesblogs.com/spinach-scramble/" xr:uid="{B158754C-43E4-4FF1-907D-5B9574266BA7}"/>
+    <hyperlink ref="U3" r:id="rId2" display="https://www.marianos.com/p/amy-s-thai-pad-thai-frozen-meal/0004227200924?searchType=default_search" xr:uid="{1F169E97-E338-4D3E-B215-2A2DDC46C5DE}"/>
+    <hyperlink ref="U2" r:id="rId3" display="https://www.marianos.com/p/kraft-original-mac-n-cheese-macaroni-and-cheese-dinner/0002100065883?searchType=suggestions" xr:uid="{CF4FFFAA-E758-40B7-9926-D55909DE6495}"/>
+    <hyperlink ref="U4" r:id="rId4" display="https://www.marianos.com/p/fresh-express-asian-apple-salad-kit/0007127930238?searchType=default_search" xr:uid="{8E432FCE-1ED3-4C38-85C1-A1ACA652BCCD}"/>
+    <hyperlink ref="U6" r:id="rId5" display="https://www.marianos.com/p/roundy-s-large-white-eggs/0001115099302?searchType=default_search" xr:uid="{16989471-87F8-4E41-B23F-9DF73B304846}"/>
+    <hyperlink ref="U7" r:id="rId6" display="https://www.marianos.com/p/medium-yellow-onions/0000000004093?searchType=default_search" xr:uid="{4E9E1A37-2E63-4366-9289-8EA104BA642B}"/>
+    <hyperlink ref="V7" r:id="rId7" location="/food-details/170000/nutrients" display="https://fdc.nal.usda.gov/fdc-app.html - /food-details/170000/nutrients" xr:uid="{918648F5-C8E6-46FD-A04B-C99CA301B7CC}"/>
+    <hyperlink ref="U8" r:id="rId8" display="https://www.marianos.com/p/fresh-express-baby-sinach-clamshell/0007127927504?searchType=default_search" xr:uid="{37A65B72-B51E-4C90-AF25-2ADB83ED8C46}"/>
+    <hyperlink ref="U11" r:id="rId9" display="https://www.marianos.com/p/kroger-thai-jasmine-rice/0001111086084?searchType=default_search" xr:uid="{BF98A656-2772-4640-8938-D58A58C8A1F0}"/>
+    <hyperlink ref="U12" r:id="rId10" display="https://www.marianos.com/p/kroger-iodized-salt/0001111004808?searchType=default_search" xr:uid="{6E6672BA-3EEC-455E-B352-39D712C1E183}"/>
+    <hyperlink ref="U14" r:id="rId11" display="https://www.marianos.com/p/broccoli-crowns/0000000003082?searchType=default_search" xr:uid="{68E0B6B4-7045-4F9D-8143-7A3D63FECC97}"/>
+    <hyperlink ref="U9" r:id="rId12" display="https://www.marianos.com/p/kroger-iodized-salt/0001111004808?searchType=default_search" xr:uid="{5FA9E986-81ED-4D7D-A8AC-58CB39BECA05}"/>
+    <hyperlink ref="U15" r:id="rId13" display="https://www.marianos.com/p/roundy-s-select-fat-free-skim-milk/0001115015958?searchType=default_search" xr:uid="{657B1142-91CF-4CD9-BBAF-D307423E16F2}"/>
+    <hyperlink ref="U10" r:id="rId14" display="https://www.ramonascuisine.com/salmon-rice-broccoli-mess/" xr:uid="{6DA59D9A-C26C-45F1-929C-C529903807E8}"/>
+    <hyperlink ref="U13" r:id="rId15" display="https://www.marianos.com/p/kroger-frozen-wild-caught-pink-salmon-fillets-big-deal-/0001111077990?searchType=default_search" xr:uid="{62075D4E-2A6A-4984-AD76-58964F0B8509}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
